--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_4.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42932.57879498107</v>
+        <v>-83828.37507428398</v>
       </c>
     </row>
     <row r="7">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17501.48917028304</v>
+        <v>-32652.1631403178</v>
       </c>
       <c r="C6" t="n">
-        <v>-17501.48917028304</v>
+        <v>-32652.1631403178</v>
       </c>
       <c r="D6" t="n">
-        <v>-17501.48917028304</v>
+        <v>-32652.1631403178</v>
       </c>
       <c r="E6" t="n">
-        <v>16126.11082971696</v>
+        <v>975.4368596821987</v>
       </c>
       <c r="F6" t="n">
-        <v>16126.11082971696</v>
+        <v>975.4368596821951</v>
       </c>
       <c r="G6" t="n">
-        <v>16126.11082971696</v>
+        <v>975.4368596821951</v>
       </c>
       <c r="H6" t="n">
-        <v>16126.11082971696</v>
+        <v>975.4368596821987</v>
       </c>
       <c r="I6" t="n">
-        <v>16126.11082971696</v>
+        <v>975.4368596821914</v>
       </c>
       <c r="J6" t="n">
-        <v>16126.11082971696</v>
+        <v>975.4368596821951</v>
       </c>
       <c r="K6" t="n">
-        <v>16126.11082971696</v>
+        <v>975.4368596821914</v>
       </c>
       <c r="L6" t="n">
-        <v>16126.11082971696</v>
+        <v>975.4368596821987</v>
       </c>
       <c r="M6" t="n">
-        <v>16126.11082971696</v>
+        <v>975.4368596821951</v>
       </c>
       <c r="N6" t="n">
-        <v>16126.11082971696</v>
+        <v>975.4368596821914</v>
       </c>
       <c r="O6" t="n">
-        <v>16126.11082971696</v>
+        <v>975.4368596821914</v>
       </c>
       <c r="P6" t="n">
-        <v>16126.11082971696</v>
+        <v>975.4368596821987</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_4.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-83828.37507428398</v>
+        <v>30256.48340805456</v>
       </c>
     </row>
     <row r="7">
@@ -26349,10 +26349,10 @@
         <v>21501.48110628928</v>
       </c>
       <c r="N2" t="n">
-        <v>21501.48110628928</v>
+        <v>21501.48110628927</v>
       </c>
       <c r="O2" t="n">
-        <v>21501.48110628928</v>
+        <v>21501.48110628927</v>
       </c>
       <c r="P2" t="n">
         <v>21501.48110628928</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-32652.1631403178</v>
+        <v>-19016.55656728652</v>
       </c>
       <c r="C6" t="n">
-        <v>-32652.1631403178</v>
+        <v>-19016.55656728652</v>
       </c>
       <c r="D6" t="n">
-        <v>-32652.1631403178</v>
+        <v>-19016.55656728652</v>
       </c>
       <c r="E6" t="n">
-        <v>975.4368596821987</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="F6" t="n">
-        <v>975.4368596821951</v>
+        <v>14611.04343271349</v>
       </c>
       <c r="G6" t="n">
-        <v>975.4368596821951</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="H6" t="n">
-        <v>975.4368596821987</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="I6" t="n">
-        <v>975.4368596821914</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="J6" t="n">
-        <v>975.4368596821951</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="K6" t="n">
-        <v>975.4368596821914</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="L6" t="n">
-        <v>975.4368596821987</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="M6" t="n">
-        <v>975.4368596821951</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="N6" t="n">
-        <v>975.4368596821914</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="O6" t="n">
-        <v>975.4368596821914</v>
+        <v>14611.04343271348</v>
       </c>
       <c r="P6" t="n">
-        <v>975.4368596821987</v>
+        <v>14611.04343271348</v>
       </c>
     </row>
   </sheetData>
